--- a/Models/CoachPlan.xlsx
+++ b/Models/CoachPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yellowwoods-my.sharepoint.com/personal/lazola_smartstart_org_za/Documents/Documents/SmartStart/Ops Department/Mapaseka's Request'/Planning Tool - Coaches/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yellowwoods-my.sharepoint.com/personal/lazola_smartstart_org_za/Documents/Documents/SmartStart/Ops Department/Mapaseka's Request'/Planning-Tool/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_67AE4032701092474A3C34209832DED674D4CAE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8685BF3-063E-4D8B-B3E3-74C7C081BADD}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_191E812B701092474A3C344D8871D12475D42AF4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2059E173-6460-44AB-A024-35C957F98965}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,12 +444,13 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="9" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -510,41 +511,41 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>2.5</v>
+      </c>
+      <c r="L2">
         <v>0.75</v>
       </c>
-      <c r="E2">
-        <v>0.1875</v>
-      </c>
-      <c r="F2">
-        <v>0.25</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
         <v>0</v>
       </c>
@@ -552,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
